--- a/medicine/Pharmacie/Biopharmacie/Biopharmacie.xlsx
+++ b/medicine/Pharmacie/Biopharmacie/Biopharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biopharmacie est une discipline des sciences pharmaceutiques qui se situe à l'interface entre la galénique et la pharmacocinétique. Elle étudie l'impact des formes galéniques d'un médicament sur son absorption par l'organisme.
 Une étape importante de la vie du médicament dans l'organisme est d'ailleurs dénommée « phase biopharmaceutique ».
